--- a/TeamRoles.xlsx
+++ b/TeamRoles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oliver Swageritis\Desktop\Privat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ohlidd/Documents/GitHub/Privat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:0_{021EF605-1DD5-44F9-AC58-8F55EF8C0E03}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED2CF141-B386-7C43-835D-3AE202D34566}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F50FE7F0-713E-42AB-B2C3-5197FDEDB8C3}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16840" xr2:uid="{F50FE7F0-713E-42AB-B2C3-5197FDEDB8C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
   <si>
     <t>Map</t>
   </si>
@@ -97,6 +97,66 @@
   </si>
   <si>
     <t>Rotate</t>
+  </si>
+  <si>
+    <t>Monster</t>
+  </si>
+  <si>
+    <t>Ramp</t>
+  </si>
+  <si>
+    <t>Outside</t>
+  </si>
+  <si>
+    <t>Ramp Rotate</t>
+  </si>
+  <si>
+    <t>Heaven</t>
+  </si>
+  <si>
+    <t>Mini</t>
+  </si>
+  <si>
+    <t>Offensive A</t>
+  </si>
+  <si>
+    <t>Green/Camera</t>
+  </si>
+  <si>
+    <t>Ivy</t>
+  </si>
+  <si>
+    <t>Banana</t>
+  </si>
+  <si>
+    <t>Second Mid</t>
+  </si>
+  <si>
+    <t>Aps</t>
+  </si>
+  <si>
+    <t>B/Pop</t>
+  </si>
+  <si>
+    <t>Pop</t>
+  </si>
+  <si>
+    <t>A-Main</t>
+  </si>
+  <si>
+    <t>A-Main/Ivy</t>
+  </si>
+  <si>
+    <t>Under</t>
+  </si>
+  <si>
+    <t>Palace</t>
+  </si>
+  <si>
+    <t>Lobby</t>
+  </si>
+  <si>
+    <t>Door</t>
   </si>
 </sst>
 </file>
@@ -136,7 +196,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -152,7 +212,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -448,15 +508,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{163E6A4C-32A8-47EA-861E-E355712E2E60}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -475,8 +535,23 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -495,8 +570,23 @@
       <c r="F2" t="s">
         <v>16</v>
       </c>
+      <c r="H2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -515,18 +605,63 @@
       <c r="F3" t="s">
         <v>13</v>
       </c>
+      <c r="H3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -537,26 +672,68 @@
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
         <v>20</v>
+      </c>
+      <c r="H8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
